--- a/Mod/ModProject_Cave/ModProject/ModExcel/DungeonBase.xlsx
+++ b/Mod/ModProject_Cave/ModProject/ModExcel/DungeonBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonBase" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>基础ID</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>此处盘踞着众多的竹木之精，它们依靠着吸取附近的灵气修炼，拥有了不可小觑的战斗力。</t>
+  </si>
+  <si>
+    <t>冥山内界</t>
   </si>
   <si>
     <t>注释</t>
@@ -386,70 +389,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,9 +410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,15 +427,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,17 +457,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,6 +490,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,10 +510,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,13 +549,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +663,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,25 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,121 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +740,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,8 +793,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -788,15 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,177 +840,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,9 +1315,9 @@
   <dimension ref="A1:AG917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P4" sqref="P4"/>
+      <selection pane="topRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1691,336 +1694,423 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="1"/>
+    <row r="5" customFormat="1" customHeight="1" spans="1:30">
+      <c r="A5" s="1">
+        <v>42685183</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="1">
+        <v>42685183</v>
+      </c>
+      <c r="P5" s="1">
+        <v>42685183</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5"/>
+      <c r="AD5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" customHeight="1"/>
     <row r="7" customHeight="1"/>
     <row r="8" customHeight="1" spans="1:27">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:27">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:20">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:20">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:20">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:20">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:21">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:21">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:21">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:21">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:21">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:21">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:1">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" customHeight="1"/>
